--- a/data/lili-tekken-8-frame-data.xlsx
+++ b/data/lili-tekken-8-frame-data.xlsx
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -522,15 +518,11 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
@@ -556,15 +548,11 @@
       <c r="D4" t="n">
         <v>20</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+6d</t>
-        </is>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -594,15 +582,11 @@
       <c r="D5" t="n">
         <v>12</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+20d (+10)</t>
-        </is>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -628,15 +612,11 @@
       <c r="D6" t="n">
         <v>12</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -662,15 +642,11 @@
       <c r="D7" t="n">
         <v>26</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -700,15 +676,11 @@
       <c r="D8" t="n">
         <v>29</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+2a (-7)</t>
-        </is>
+      <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -730,10 +702,8 @@
       <c r="D9" t="n">
         <v>12</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E9" t="n">
+        <v>3</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -760,15 +730,11 @@
       <c r="D10" t="n">
         <v>10</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -790,15 +756,11 @@
       <c r="D11" t="n">
         <v>16</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+2c</t>
-        </is>
+      <c r="E11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
@@ -824,15 +786,11 @@
       <c r="D12" t="n">
         <v>26</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -862,10 +820,8 @@
       <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E13" t="n">
+        <v>3</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -892,15 +848,11 @@
       <c r="D14" t="n">
         <v>22</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+24a (+15)</t>
-        </is>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>24</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
@@ -926,15 +878,11 @@
       <c r="D15" t="n">
         <v>15</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-3</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -956,15 +904,11 @@
       <c r="D16" t="n">
         <v>27</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+40d (-18)</t>
-        </is>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>40</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
@@ -990,15 +934,11 @@
       <c r="D17" t="n">
         <v>27</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1028,15 +968,11 @@
       <c r="D18" t="n">
         <v>24</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+13a (+4)</t>
-        </is>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
@@ -1062,15 +998,11 @@
       <c r="D19" t="n">
         <v>23</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+20a (+11)</t>
-        </is>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
@@ -1096,15 +1028,11 @@
       <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1126,15 +1054,11 @@
       <c r="D21" t="n">
         <v>17</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1164,15 +1088,11 @@
       <c r="D22" t="n">
         <v>23</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+29a (-7)</t>
-        </is>
+      <c r="E22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F22" t="n">
+        <v>29</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
@@ -1197,10 +1117,8 @@
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="F23" t="n">
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
@@ -1226,15 +1144,9 @@
       <c r="D24" t="n">
         <v>63</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+9a (-17)</t>
-        </is>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>9</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
@@ -1260,15 +1172,11 @@
       <c r="D25" t="n">
         <v>25</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+32a (+17)</t>
-        </is>
+      <c r="E25" t="n">
+        <v>11</v>
+      </c>
+      <c r="F25" t="n">
+        <v>32</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -1294,15 +1202,11 @@
       <c r="D26" t="n">
         <v>13</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E26" t="n">
+        <v>11</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1324,15 +1228,11 @@
       <c r="D27" t="n">
         <v>20</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1362,15 +1262,11 @@
       <c r="D28" t="n">
         <v>23</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+20a (+10)</t>
-        </is>
+      <c r="E28" t="n">
+        <v>12</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
@@ -1436,15 +1332,9 @@
       <c r="D31" t="n">
         <v>12</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -1470,15 +1360,11 @@
       <c r="D32" t="n">
         <v>8</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E32" t="n">
+        <v>8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1500,15 +1386,11 @@
       <c r="D33" t="n">
         <v>13</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-11c</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>+16a</t>
-        </is>
+      <c r="E33" t="n">
+        <v>11</v>
+      </c>
+      <c r="F33" t="n">
+        <v>16</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1530,15 +1412,11 @@
       <c r="D34" t="n">
         <v>24</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>+16a (-1)</t>
-        </is>
+      <c r="E34" t="n">
+        <v>13</v>
+      </c>
+      <c r="F34" t="n">
+        <v>16</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -1564,15 +1442,11 @@
       <c r="D35" t="n">
         <v>22</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>+10g</t>
-        </is>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
@@ -1598,15 +1472,11 @@
       <c r="D36" t="n">
         <v>14</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
@@ -1632,15 +1502,11 @@
       <c r="D37" t="n">
         <v>14</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
@@ -1666,15 +1532,11 @@
       <c r="D38" t="n">
         <v>29</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>+7c</t>
-        </is>
+      <c r="E38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
@@ -1700,15 +1562,11 @@
       <c r="D39" t="n">
         <v>30</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+39d (+31)</t>
-        </is>
+      <c r="E39" t="n">
+        <v>12</v>
+      </c>
+      <c r="F39" t="n">
+        <v>39</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
@@ -1734,15 +1592,11 @@
       <c r="D40" t="n">
         <v>26</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>+11d</t>
-        </is>
+      <c r="E40" t="n">
+        <v>11</v>
+      </c>
+      <c r="F40" t="n">
+        <v>11</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1768,15 +1622,11 @@
       <c r="D41" t="n">
         <v>28</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+4d</t>
-        </is>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1822,15 +1672,11 @@
       <c r="D43" t="n">
         <v>16</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+5c</t>
-        </is>
+      <c r="E43" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1856,15 +1702,11 @@
       <c r="D44" t="n">
         <v>17</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E44" t="n">
+        <v>17</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1890,15 +1732,11 @@
       <c r="D45" t="n">
         <v>20</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>+19d</t>
-        </is>
+      <c r="E45" t="n">
+        <v>26</v>
+      </c>
+      <c r="F45" t="n">
+        <v>19</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
@@ -1924,15 +1762,11 @@
       <c r="D46" t="n">
         <v>22</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>+27a (+12)</t>
-        </is>
+      <c r="E46" t="n">
+        <v>13</v>
+      </c>
+      <c r="F46" t="n">
+        <v>27</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
@@ -1958,15 +1792,11 @@
       <c r="D47" t="n">
         <v>14</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E47" t="n">
+        <v>11</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -1988,15 +1818,11 @@
       <c r="D48" t="n">
         <v>18</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E48" t="n">
+        <v>11</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -2022,15 +1848,11 @@
       <c r="D49" t="n">
         <v>20</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>+13d</t>
-        </is>
+      <c r="E49" t="n">
+        <v>13</v>
+      </c>
+      <c r="F49" t="n">
+        <v>13</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -2056,15 +1878,11 @@
       <c r="D50" t="n">
         <v>18</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2094,15 +1912,11 @@
       <c r="D51" t="n">
         <v>30</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+17a (+8)</t>
-        </is>
+      <c r="E51" t="n">
+        <v>12</v>
+      </c>
+      <c r="F51" t="n">
+        <v>17</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
@@ -2128,15 +1942,11 @@
       <c r="D52" t="n">
         <v>16</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E52" t="n">
+        <v>7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -2158,15 +1968,11 @@
       <c r="D53" t="n">
         <v>17</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E53" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-4</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2196,15 +2002,11 @@
       <c r="D54" t="n">
         <v>25</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>+23a (+14)</t>
-        </is>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>23</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
@@ -2230,15 +2032,11 @@
       <c r="D55" t="n">
         <v>22</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+35d (-23)</t>
-        </is>
+      <c r="E55" t="n">
+        <v>17</v>
+      </c>
+      <c r="F55" t="n">
+        <v>35</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
@@ -2264,15 +2062,11 @@
       <c r="D56" t="n">
         <v>19</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E56" t="n">
+        <v>12</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2298,15 +2092,11 @@
       <c r="D57" t="n">
         <v>17</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+45a (+35)</t>
-        </is>
+      <c r="E57" t="n">
+        <v>21</v>
+      </c>
+      <c r="F57" t="n">
+        <v>45</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -2328,15 +2118,11 @@
       <c r="D58" t="n">
         <v>12</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E58" t="n">
+        <v>15</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-4</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2362,15 +2148,11 @@
       <c r="D59" t="n">
         <v>10</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
@@ -2396,15 +2178,11 @@
       <c r="D60" t="n">
         <v>11</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E60" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" t="n">
+        <v>7</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
@@ -2430,15 +2208,11 @@
       <c r="D61" t="n">
         <v>20</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>+34a</t>
-        </is>
+      <c r="E61" t="n">
+        <v>8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>34</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2468,15 +2242,11 @@
       <c r="D62" t="n">
         <v>24</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>+3d</t>
-        </is>
+      <c r="E62" t="n">
+        <v>18</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2502,15 +2272,11 @@
       <c r="D63" t="n">
         <v>30</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-24</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+76a (+60)</t>
-        </is>
+      <c r="E63" t="n">
+        <v>24</v>
+      </c>
+      <c r="F63" t="n">
+        <v>76</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
@@ -2536,15 +2302,11 @@
       <c r="D64" t="n">
         <v>15</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E64" t="n">
+        <v>9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-4</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2570,15 +2332,11 @@
       <c r="D65" t="n">
         <v>16</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>+17cg</t>
-        </is>
+      <c r="E65" t="n">
+        <v>11</v>
+      </c>
+      <c r="F65" t="n">
+        <v>17</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
@@ -2604,15 +2362,11 @@
       <c r="D66" t="n">
         <v>23</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>+20a (+10)</t>
-        </is>
+      <c r="E66" t="n">
+        <v>14</v>
+      </c>
+      <c r="F66" t="n">
+        <v>20</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2642,15 +2396,11 @@
       <c r="D67" t="n">
         <v>25</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>+2a (-7)</t>
-        </is>
+      <c r="E67" t="n">
+        <v>9</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2676,15 +2426,11 @@
       <c r="D68" t="n">
         <v>14</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E68" t="n">
+        <v>9</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
@@ -2710,15 +2456,11 @@
       <c r="D69" t="n">
         <v>22</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+17d</t>
-        </is>
+      <c r="E69" t="n">
+        <v>13</v>
+      </c>
+      <c r="F69" t="n">
+        <v>17</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
@@ -2744,15 +2486,11 @@
       <c r="D70" t="n">
         <v>17</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>+20a (+3)</t>
-        </is>
+      <c r="E70" t="n">
+        <v>9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>20</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
@@ -2778,15 +2516,11 @@
       <c r="D71" t="n">
         <v>12</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>+17g</t>
-        </is>
+      <c r="E71" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F71" t="n">
+        <v>17</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
@@ -2812,15 +2546,11 @@
       <c r="D72" t="n">
         <v>13</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -2842,15 +2572,11 @@
       <c r="D73" t="n">
         <v>16</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>+31a (+21)</t>
-        </is>
+      <c r="E73" t="n">
+        <v>11</v>
+      </c>
+      <c r="F73" t="n">
+        <v>31</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
@@ -2876,15 +2602,11 @@
       <c r="D74" t="n">
         <v>20</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>+3c</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>+8c</t>
-        </is>
+      <c r="E74" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2910,15 +2632,11 @@
       <c r="D75" t="n">
         <v>24</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>+27a</t>
-        </is>
+      <c r="E75" t="n">
+        <v>4</v>
+      </c>
+      <c r="F75" t="n">
+        <v>27</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
@@ -2940,15 +2658,11 @@
       <c r="D76" t="n">
         <v>26</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+2d</t>
-        </is>
+      <c r="E76" t="n">
+        <v>7</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
@@ -2974,15 +2688,11 @@
       <c r="D77" t="n">
         <v>13</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E77" t="n">
+        <v>8</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-2</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3012,15 +2722,11 @@
       <c r="D78" t="n">
         <v>20</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E78" t="n">
+        <v>13</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-2</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3050,15 +2756,9 @@
       <c r="D79" t="n">
         <v>12</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+0d</t>
-        </is>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
@@ -3084,15 +2784,11 @@
       <c r="D80" t="n">
         <v>14</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>+4c</t>
-        </is>
+      <c r="E80" t="n">
+        <v>7</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3118,15 +2814,11 @@
       <c r="D81" t="n">
         <v>12</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E81" t="n">
+        <v>9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-1</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -3148,15 +2840,11 @@
       <c r="D82" t="n">
         <v>22</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>+24a (+7)</t>
-        </is>
+      <c r="E82" t="n">
+        <v>15</v>
+      </c>
+      <c r="F82" t="n">
+        <v>24</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3182,15 +2870,11 @@
       <c r="D83" t="n">
         <v>20</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>+17a (+8)</t>
-        </is>
+      <c r="E83" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>17</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -3216,15 +2900,11 @@
       <c r="D84" t="n">
         <v>18</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>+6d</t>
-        </is>
+      <c r="E84" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" t="n">
+        <v>6</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
@@ -3250,15 +2930,11 @@
       <c r="D85" t="n">
         <v>30</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>+24a</t>
-        </is>
+      <c r="E85" t="n">
+        <v>8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>24</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3284,15 +2960,11 @@
       <c r="D86" t="n">
         <v>19</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>+10 (+3)</t>
-        </is>
+      <c r="E86" t="n">
+        <v>20</v>
+      </c>
+      <c r="F86" t="n">
+        <v>10</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
@@ -3318,15 +2990,11 @@
       <c r="D87" t="n">
         <v>17</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E87" t="n">
+        <v>9</v>
+      </c>
+      <c r="F87" t="n">
+        <v>7</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3356,15 +3024,11 @@
       <c r="D88" t="n">
         <v>10</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>6</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
@@ -3390,15 +3054,11 @@
       <c r="D89" t="n">
         <v>11</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E89" t="n">
+        <v>4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>7</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
@@ -3424,15 +3084,11 @@
       <c r="D90" t="n">
         <v>16</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E90" t="n">
+        <v>17</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-6</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -3454,15 +3110,11 @@
       <c r="D91" t="n">
         <v>12</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E91" t="n">
+        <v>15</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-4</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
@@ -3488,15 +3140,11 @@
       <c r="D92" t="n">
         <v>14</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+19a (+2)</t>
-        </is>
+      <c r="E92" t="n">
+        <v>6</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3526,15 +3174,11 @@
       <c r="D93" t="n">
         <v>23</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E93" t="n">
+        <v>18</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-2</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3560,15 +3204,11 @@
       <c r="D94" t="n">
         <v>18</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>+17a (+8)</t>
-        </is>
+      <c r="E94" t="n">
+        <v>9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>17</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3594,15 +3234,11 @@
       <c r="D95" t="n">
         <v>16</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>+20a</t>
-        </is>
+      <c r="E95" t="n">
+        <v>13</v>
+      </c>
+      <c r="F95" t="n">
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
@@ -3624,15 +3260,11 @@
       <c r="D96" t="n">
         <v>22</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+5c</t>
-        </is>
+      <c r="E96" t="n">
+        <v>12</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3658,15 +3290,11 @@
       <c r="D97" t="n">
         <v>27</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+13d</t>
-        </is>
+      <c r="E97" t="n">
+        <v>8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
@@ -3692,15 +3320,11 @@
       <c r="D98" t="n">
         <v>19</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>+4a (-5)</t>
-        </is>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
@@ -3726,15 +3350,11 @@
       <c r="D99" t="n">
         <v>22</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E99" t="n">
+        <v>12</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3764,15 +3384,11 @@
       <c r="D100" t="n">
         <v>23</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>+20a (+10)</t>
-        </is>
+      <c r="E100" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>20</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
@@ -3798,15 +3414,11 @@
       <c r="D101" t="n">
         <v>23</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>-3d</t>
-        </is>
+      <c r="E101" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-3</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
@@ -3832,15 +3444,11 @@
       <c r="D102" t="n">
         <v>16</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+23a (+5)</t>
-        </is>
+      <c r="E102" t="n">
+        <v>8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>23</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
@@ -3866,15 +3474,11 @@
       <c r="D103" t="n">
         <v>19</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>+4 (+9w)</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+20a (-6)</t>
-        </is>
+      <c r="E103" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>20</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
@@ -3900,15 +3504,11 @@
       <c r="D104" t="n">
         <v>20</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>+24a</t>
-        </is>
+      <c r="E104" t="n">
+        <v>13</v>
+      </c>
+      <c r="F104" t="n">
+        <v>24</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3938,15 +3538,11 @@
       <c r="D105" t="n">
         <v>12</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>+0d</t>
-        </is>
+      <c r="E105" t="n">
+        <v>3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
@@ -3992,15 +3588,11 @@
       <c r="D107" t="n">
         <v>20</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>+39d (-19)</t>
-        </is>
+      <c r="E107" t="n">
+        <v>9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>39</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
@@ -4026,15 +3618,11 @@
       <c r="D108" t="n">
         <v>20</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>+3c</t>
-        </is>
+      <c r="E108" t="n">
+        <v>13</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4064,15 +3652,11 @@
       <c r="D109" t="n">
         <v>23</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>+4a (-5)</t>
-        </is>
+      <c r="E109" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
@@ -4118,15 +3702,11 @@
       <c r="D111" t="n">
         <v>20</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E111" t="n">
+        <v>15</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
@@ -4152,15 +3732,11 @@
       <c r="D112" t="n">
         <v>12</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>+1d</t>
-        </is>
+      <c r="E112" t="n">
+        <v>3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
@@ -4186,15 +3762,11 @@
       <c r="D113" t="n">
         <v>19</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>+25a (+16)</t>
-        </is>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>25</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4224,15 +3796,11 @@
       <c r="D114" t="n">
         <v>16</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>+35d (+27)</t>
-        </is>
+      <c r="E114" t="n">
+        <v>9</v>
+      </c>
+      <c r="F114" t="n">
+        <v>35</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
@@ -4258,15 +3826,11 @@
       <c r="D115" t="n">
         <v>20</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E115" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4296,15 +3860,11 @@
       <c r="D116" t="n">
         <v>22</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>+25a (+15)</t>
-        </is>
+      <c r="E116" t="n">
+        <v>16</v>
+      </c>
+      <c r="F116" t="n">
+        <v>25</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
@@ -4330,15 +3890,11 @@
       <c r="D117" t="n">
         <v>28</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>+5c</t>
-        </is>
+      <c r="E117" t="n">
+        <v>12</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
@@ -4364,15 +3920,11 @@
       <c r="D118" t="n">
         <v>27</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>+13d</t>
-        </is>
+      <c r="E118" t="n">
+        <v>8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>13</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
@@ -4398,15 +3950,11 @@
       <c r="D119" t="n">
         <v>36</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>+13d (+39a)</t>
-        </is>
+      <c r="E119" t="n">
+        <v>8</v>
+      </c>
+      <c r="F119" t="n">
+        <v>13</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
@@ -4432,15 +3980,11 @@
       <c r="D120" t="n">
         <v>16</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+9d</t>
-        </is>
+      <c r="E120" t="n">
+        <v>9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>9</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
@@ -4462,15 +4006,11 @@
       <c r="D121" t="n">
         <v>12</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E121" t="n">
+        <v>3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
@@ -4496,15 +4036,11 @@
       <c r="D122" t="n">
         <v>20</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>+15a (+6)</t>
-        </is>
+      <c r="E122" t="n">
+        <v>10</v>
+      </c>
+      <c r="F122" t="n">
+        <v>15</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
@@ -4530,15 +4066,11 @@
       <c r="D123" t="n">
         <v>15</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>+30a (+20)</t>
-        </is>
+      <c r="E123" t="n">
+        <v>13</v>
+      </c>
+      <c r="F123" t="n">
+        <v>30</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
@@ -4564,15 +4096,11 @@
       <c r="D124" t="n">
         <v>15</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E124" t="n">
+        <v>9</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
@@ -4598,15 +4126,11 @@
       <c r="D125" t="n">
         <v>19</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>+45a (+35)</t>
-        </is>
+      <c r="E125" t="n">
+        <v>21</v>
+      </c>
+      <c r="F125" t="n">
+        <v>45</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
@@ -4632,15 +4156,11 @@
       <c r="D126" t="n">
         <v>13</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>+14g (+18g w)</t>
-        </is>
+      <c r="E126" t="n">
+        <v>4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>14</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4670,15 +4190,11 @@
       <c r="D127" t="n">
         <v>25</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+1c</t>
-        </is>
+      <c r="E127" t="n">
+        <v>12</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
@@ -4704,15 +4220,11 @@
       <c r="D128" t="n">
         <v>24</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>+41d (-17)</t>
-        </is>
+      <c r="E128" t="n">
+        <v>9</v>
+      </c>
+      <c r="F128" t="n">
+        <v>41</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4742,15 +4254,11 @@
       <c r="D129" t="n">
         <v>23</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>+32a (+22)</t>
-        </is>
+      <c r="E129" t="n">
+        <v>13</v>
+      </c>
+      <c r="F129" t="n">
+        <v>32</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
@@ -4772,15 +4280,11 @@
       <c r="D130" t="n">
         <v>13</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E130" t="n">
+        <v>11</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
@@ -4802,15 +4306,11 @@
       <c r="D131" t="n">
         <v>22</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E131" t="n">
+        <v>3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>8</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
@@ -4836,15 +4336,11 @@
       <c r="D132" t="n">
         <v>22</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>+12a</t>
-        </is>
+      <c r="E132" t="n">
+        <v>14</v>
+      </c>
+      <c r="F132" t="n">
+        <v>12</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4874,15 +4370,11 @@
       <c r="D133" t="n">
         <v>16</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>+39a (+29)</t>
-        </is>
+      <c r="E133" t="n">
+        <v>12</v>
+      </c>
+      <c r="F133" t="n">
+        <v>39</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
@@ -4908,15 +4400,11 @@
       <c r="D134" t="n">
         <v>15</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>+62a (+46)</t>
-        </is>
+      <c r="E134" t="n">
+        <v>21</v>
+      </c>
+      <c r="F134" t="n">
+        <v>62</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
@@ -4942,15 +4430,11 @@
       <c r="D135" t="n">
         <v>44</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>+4c</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>+26d</t>
-        </is>
+      <c r="E135" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F135" t="n">
+        <v>26</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
@@ -4976,15 +4460,11 @@
       <c r="D136" t="n">
         <v>11</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>+20a (+13)</t>
-        </is>
+      <c r="E136" t="n">
+        <v>9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>20</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>

--- a/data/lili-tekken-8-frame-data.xlsx
+++ b/data/lili-tekken-8-frame-data.xlsx
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
         <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F5" t="n">
         <v>20</v>
@@ -613,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F6" t="n">
         <v>8</v>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F7" t="n">
         <v>-2</v>
@@ -677,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -703,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -757,7 +757,7 @@
         <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
@@ -787,7 +787,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F12" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -849,7 +849,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F14" t="n">
         <v>24</v>
@@ -879,7 +879,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F15" t="n">
         <v>-3</v>
@@ -905,7 +905,7 @@
         <v>27</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F16" t="n">
         <v>40</v>
@@ -935,7 +935,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>24</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F18" t="n">
         <v>13</v>
@@ -999,7 +999,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F19" t="n">
         <v>20</v>
@@ -1029,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F20" t="n">
         <v>7</v>
@@ -1055,7 +1055,7 @@
         <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
@@ -1089,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F22" t="n">
         <v>29</v>
@@ -1173,7 +1173,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F25" t="n">
         <v>32</v>
@@ -1203,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F27" t="n">
         <v>7</v>
@@ -1263,7 +1263,7 @@
         <v>23</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F28" t="n">
         <v>20</v>
@@ -1361,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
@@ -1387,7 +1387,7 @@
         <v>13</v>
       </c>
       <c r="E33" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F33" t="n">
         <v>16</v>
@@ -1413,7 +1413,7 @@
         <v>24</v>
       </c>
       <c r="E34" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F34" t="n">
         <v>16</v>
@@ -1443,7 +1443,7 @@
         <v>22</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F35" t="n">
         <v>10</v>
@@ -1473,7 +1473,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F36" t="n">
         <v>8</v>
@@ -1503,7 +1503,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>29</v>
       </c>
       <c r="E38" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>7</v>
@@ -1563,7 +1563,7 @@
         <v>30</v>
       </c>
       <c r="E39" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F39" t="n">
         <v>39</v>
@@ -1593,7 +1593,7 @@
         <v>26</v>
       </c>
       <c r="E40" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F40" t="n">
         <v>11</v>
@@ -1623,7 +1623,7 @@
         <v>28</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F41" t="n">
         <v>4</v>
@@ -1673,7 +1673,7 @@
         <v>16</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F43" t="n">
         <v>5</v>
@@ -1703,7 +1703,7 @@
         <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F44" t="n">
         <v>-1</v>
@@ -1733,7 +1733,7 @@
         <v>20</v>
       </c>
       <c r="E45" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F45" t="n">
         <v>19</v>
@@ -1763,7 +1763,7 @@
         <v>22</v>
       </c>
       <c r="E46" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F46" t="n">
         <v>27</v>
@@ -1793,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1819,7 +1819,7 @@
         <v>18</v>
       </c>
       <c r="E48" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F49" t="n">
         <v>13</v>
@@ -1879,7 +1879,7 @@
         <v>18</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
@@ -1913,7 +1913,7 @@
         <v>30</v>
       </c>
       <c r="E51" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F51" t="n">
         <v>17</v>
@@ -1943,7 +1943,7 @@
         <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>17</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F53" t="n">
         <v>-4</v>
@@ -2003,7 +2003,7 @@
         <v>25</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F54" t="n">
         <v>23</v>
@@ -2033,7 +2033,7 @@
         <v>22</v>
       </c>
       <c r="E55" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F55" t="n">
         <v>35</v>
@@ -2063,7 +2063,7 @@
         <v>19</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>17</v>
       </c>
       <c r="E57" t="n">
-        <v>21</v>
+        <v>-21</v>
       </c>
       <c r="F57" t="n">
         <v>45</v>
@@ -2119,7 +2119,7 @@
         <v>12</v>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F58" t="n">
         <v>-4</v>
@@ -2149,7 +2149,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F59" t="n">
         <v>6</v>
@@ -2179,7 +2179,7 @@
         <v>11</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F60" t="n">
         <v>7</v>
@@ -2209,7 +2209,7 @@
         <v>20</v>
       </c>
       <c r="E61" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F61" t="n">
         <v>34</v>
@@ -2243,7 +2243,7 @@
         <v>24</v>
       </c>
       <c r="E62" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F62" t="n">
         <v>3</v>
@@ -2273,7 +2273,7 @@
         <v>30</v>
       </c>
       <c r="E63" t="n">
-        <v>24</v>
+        <v>-24</v>
       </c>
       <c r="F63" t="n">
         <v>76</v>
@@ -2303,7 +2303,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F64" t="n">
         <v>-4</v>
@@ -2333,7 +2333,7 @@
         <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F65" t="n">
         <v>17</v>
@@ -2363,7 +2363,7 @@
         <v>23</v>
       </c>
       <c r="E66" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F66" t="n">
         <v>20</v>
@@ -2397,7 +2397,7 @@
         <v>25</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F67" t="n">
         <v>2</v>
@@ -2427,7 +2427,7 @@
         <v>14</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>22</v>
       </c>
       <c r="E69" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F69" t="n">
         <v>17</v>
@@ -2487,7 +2487,7 @@
         <v>17</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F70" t="n">
         <v>20</v>
@@ -2517,7 +2517,7 @@
         <v>12</v>
       </c>
       <c r="E71" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
         <v>17</v>
@@ -2547,7 +2547,7 @@
         <v>13</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F72" t="n">
         <v>8</v>
@@ -2573,7 +2573,7 @@
         <v>16</v>
       </c>
       <c r="E73" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F73" t="n">
         <v>31</v>
@@ -2603,7 +2603,7 @@
         <v>20</v>
       </c>
       <c r="E74" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>8</v>
@@ -2633,7 +2633,7 @@
         <v>24</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F75" t="n">
         <v>27</v>
@@ -2659,7 +2659,7 @@
         <v>26</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F76" t="n">
         <v>2</v>
@@ -2689,7 +2689,7 @@
         <v>13</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F77" t="n">
         <v>-2</v>
@@ -2723,7 +2723,7 @@
         <v>20</v>
       </c>
       <c r="E78" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F78" t="n">
         <v>-2</v>
@@ -2785,7 +2785,7 @@
         <v>14</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F80" t="n">
         <v>4</v>
@@ -2815,7 +2815,7 @@
         <v>12</v>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F81" t="n">
         <v>-1</v>
@@ -2841,7 +2841,7 @@
         <v>22</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F82" t="n">
         <v>24</v>
@@ -2871,7 +2871,7 @@
         <v>20</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F83" t="n">
         <v>17</v>
@@ -2901,7 +2901,7 @@
         <v>18</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F84" t="n">
         <v>6</v>
@@ -2931,7 +2931,7 @@
         <v>30</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F85" t="n">
         <v>24</v>
@@ -2961,7 +2961,7 @@
         <v>19</v>
       </c>
       <c r="E86" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="F86" t="n">
         <v>10</v>
@@ -2991,7 +2991,7 @@
         <v>17</v>
       </c>
       <c r="E87" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F87" t="n">
         <v>7</v>
@@ -3025,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F88" t="n">
         <v>6</v>
@@ -3055,7 +3055,7 @@
         <v>11</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F89" t="n">
         <v>7</v>
@@ -3085,7 +3085,7 @@
         <v>16</v>
       </c>
       <c r="E90" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F90" t="n">
         <v>-6</v>
@@ -3111,7 +3111,7 @@
         <v>12</v>
       </c>
       <c r="E91" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F91" t="n">
         <v>-4</v>
@@ -3141,7 +3141,7 @@
         <v>14</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F92" t="n">
         <v>19</v>
@@ -3175,7 +3175,7 @@
         <v>23</v>
       </c>
       <c r="E93" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F93" t="n">
         <v>-2</v>
@@ -3205,7 +3205,7 @@
         <v>18</v>
       </c>
       <c r="E94" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F94" t="n">
         <v>17</v>
@@ -3235,7 +3235,7 @@
         <v>16</v>
       </c>
       <c r="E95" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F95" t="n">
         <v>20</v>
@@ -3261,7 +3261,7 @@
         <v>22</v>
       </c>
       <c r="E96" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F96" t="n">
         <v>5</v>
@@ -3291,7 +3291,7 @@
         <v>27</v>
       </c>
       <c r="E97" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F97" t="n">
         <v>13</v>
@@ -3321,7 +3321,7 @@
         <v>19</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F98" t="n">
         <v>4</v>
@@ -3351,7 +3351,7 @@
         <v>22</v>
       </c>
       <c r="E99" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F99" t="n">
         <v>4</v>
@@ -3385,7 +3385,7 @@
         <v>23</v>
       </c>
       <c r="E100" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
         <v>20</v>
@@ -3415,7 +3415,7 @@
         <v>23</v>
       </c>
       <c r="E101" t="n">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="F101" t="n">
         <v>-3</v>
@@ -3445,7 +3445,7 @@
         <v>16</v>
       </c>
       <c r="E102" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F102" t="n">
         <v>23</v>
@@ -3475,7 +3475,7 @@
         <v>19</v>
       </c>
       <c r="E103" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F103" t="n">
         <v>20</v>
@@ -3505,7 +3505,7 @@
         <v>20</v>
       </c>
       <c r="E104" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F104" t="n">
         <v>24</v>
@@ -3539,7 +3539,7 @@
         <v>12</v>
       </c>
       <c r="E105" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>20</v>
       </c>
       <c r="E107" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F107" t="n">
         <v>39</v>
@@ -3619,7 +3619,7 @@
         <v>20</v>
       </c>
       <c r="E108" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F108" t="n">
         <v>3</v>
@@ -3653,7 +3653,7 @@
         <v>23</v>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F109" t="n">
         <v>4</v>
@@ -3703,7 +3703,7 @@
         <v>20</v>
       </c>
       <c r="E111" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>12</v>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
@@ -3797,7 +3797,7 @@
         <v>16</v>
       </c>
       <c r="E114" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F114" t="n">
         <v>35</v>
@@ -3827,7 +3827,7 @@
         <v>20</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F115" t="n">
         <v>4</v>
@@ -3861,7 +3861,7 @@
         <v>22</v>
       </c>
       <c r="E116" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F116" t="n">
         <v>25</v>
@@ -3891,7 +3891,7 @@
         <v>28</v>
       </c>
       <c r="E117" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F117" t="n">
         <v>5</v>
@@ -3921,7 +3921,7 @@
         <v>27</v>
       </c>
       <c r="E118" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F118" t="n">
         <v>13</v>
@@ -3951,7 +3951,7 @@
         <v>36</v>
       </c>
       <c r="E119" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F119" t="n">
         <v>13</v>
@@ -3981,7 +3981,7 @@
         <v>16</v>
       </c>
       <c r="E120" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F120" t="n">
         <v>9</v>
@@ -4007,7 +4007,7 @@
         <v>12</v>
       </c>
       <c r="E121" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
@@ -4037,7 +4037,7 @@
         <v>20</v>
       </c>
       <c r="E122" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F122" t="n">
         <v>15</v>
@@ -4067,7 +4067,7 @@
         <v>15</v>
       </c>
       <c r="E123" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F123" t="n">
         <v>30</v>
@@ -4097,7 +4097,7 @@
         <v>15</v>
       </c>
       <c r="E124" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F124" t="n">
         <v>2</v>
@@ -4127,7 +4127,7 @@
         <v>19</v>
       </c>
       <c r="E125" t="n">
-        <v>21</v>
+        <v>-21</v>
       </c>
       <c r="F125" t="n">
         <v>45</v>
@@ -4157,7 +4157,7 @@
         <v>13</v>
       </c>
       <c r="E126" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F126" t="n">
         <v>14</v>
@@ -4191,7 +4191,7 @@
         <v>25</v>
       </c>
       <c r="E127" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         <v>24</v>
       </c>
       <c r="E128" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F128" t="n">
         <v>41</v>
@@ -4255,7 +4255,7 @@
         <v>23</v>
       </c>
       <c r="E129" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F129" t="n">
         <v>32</v>
@@ -4281,7 +4281,7 @@
         <v>13</v>
       </c>
       <c r="E130" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4307,7 +4307,7 @@
         <v>22</v>
       </c>
       <c r="E131" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F131" t="n">
         <v>8</v>
@@ -4337,7 +4337,7 @@
         <v>22</v>
       </c>
       <c r="E132" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F132" t="n">
         <v>12</v>
@@ -4371,7 +4371,7 @@
         <v>16</v>
       </c>
       <c r="E133" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F133" t="n">
         <v>39</v>
@@ -4401,7 +4401,7 @@
         <v>15</v>
       </c>
       <c r="E134" t="n">
-        <v>21</v>
+        <v>-21</v>
       </c>
       <c r="F134" t="n">
         <v>62</v>
@@ -4431,7 +4431,7 @@
         <v>44</v>
       </c>
       <c r="E135" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F135" t="n">
         <v>26</v>
@@ -4461,7 +4461,7 @@
         <v>11</v>
       </c>
       <c r="E136" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F136" t="n">
         <v>20</v>
